--- a/services/infocar/output_colunada/xlsx/resulting_spreadsheet.xlsx
+++ b/services/infocar/output_colunada/xlsx/resulting_spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\ma_digitalization\services\infocar\output\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BBBCDB-32CC-4064-BBB3-D3B1FB9113FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434F948D-6978-498B-871F-47B9C0BAC5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="306">
   <si>
     <t>Lote Ref. / Ativo-Frota</t>
   </si>
@@ -157,15 +157,24 @@
     <t>21778197841 RODRIGO MENDES PEREIRA / 21778197841</t>
   </si>
   <si>
+    <t>ARISTON DE PAULA PEREIRA / 00000000000000</t>
+  </si>
+  <si>
     <t>79839738100 ROGERIO RODRIGUES / 79839738100</t>
   </si>
   <si>
     <t>02616875810 OSMAURO BENEDITO ALVES DOS SANTOS / 02616875810</t>
   </si>
   <si>
+    <t>HIANY FIUZA LEITE / 00000000000000</t>
+  </si>
+  <si>
     <t>89924410106 REGIANE MACIEL ALBERNAZ / 89924410106</t>
   </si>
   <si>
+    <t>RENAN MOTA CORTEZ / 00000000000000</t>
+  </si>
+  <si>
     <t>21263469000193 M M ADM PART LOC E SERVICOS ADM EIRELI LTDA / 21263469000193</t>
   </si>
   <si>
@@ -175,9 +184,15 @@
     <t>28490154000128 SILMARA CAMARGO PRADO LUNELLI LEON / 28490154000128</t>
   </si>
   <si>
+    <t>MARCOS ROBERTO PRESTES / 00000000000000</t>
+  </si>
+  <si>
     <t>TANIA DAL MASO COSTI / 00088638464991</t>
   </si>
   <si>
+    <t>VALDIM ALVES DA SILVA / 091.963.218-14</t>
+  </si>
+  <si>
     <t>00152786899 JOSE ANTONIO ESCORCIO DE FREITAS / 00152786899</t>
   </si>
   <si>
@@ -190,9 +205,21 @@
     <t>LUIZ ANTONIO MANICA / 00047046180644</t>
   </si>
   <si>
+    <t>06953215000103 TRANSMENDES TRANSPORTES EIRELI / 06953215000103</t>
+  </si>
+  <si>
+    <t>UPPER SCHOOL - EDUCACAO PARA VIDA LTDA / 38561014000157</t>
+  </si>
+  <si>
     <t>PAULO LUIZ ALVES DA SILVA / 00087527090944</t>
   </si>
   <si>
+    <t xml:space="preserve">FELIPE FARIA / </t>
+  </si>
+  <si>
+    <t>16885016810 ALBERTO LUIS SILVA / 16885016810</t>
+  </si>
+  <si>
     <t>05532896755 GUILHERME OLIVEIRA TEIXEIRA / 05532896755</t>
   </si>
   <si>
@@ -226,6 +253,9 @@
     <t>ALIENACAO FIDUCIARIA</t>
   </si>
   <si>
+    <t>ALIENACAO FIDUCIARIA, ALIENACAO FIDUCIARIA</t>
+  </si>
+  <si>
     <t>SINISTRADO/RECUPERADO</t>
   </si>
   <si>
@@ -235,6 +265,9 @@
     <t>COMUNICACAO DE VENDA</t>
   </si>
   <si>
+    <t>ALIENACAO FIDUCIARIA, RENAINF</t>
+  </si>
+  <si>
     <t>233,83</t>
   </si>
   <si>
@@ -244,12 +277,18 @@
     <t>155,23</t>
   </si>
   <si>
+    <t>2344,87</t>
+  </si>
+  <si>
     <t>2528,96</t>
   </si>
   <si>
     <t>831,28</t>
   </si>
   <si>
+    <t>286,34</t>
+  </si>
+  <si>
     <t>140,00</t>
   </si>
   <si>
@@ -268,6 +307,9 @@
     <t>2809,04</t>
   </si>
   <si>
+    <t>3521,77</t>
+  </si>
+  <si>
     <t>3786,78</t>
   </si>
   <si>
@@ -289,6 +331,9 @@
     <t>UTILITARIO</t>
   </si>
   <si>
+    <t>6 - AUTOMOVEL</t>
+  </si>
+  <si>
     <t>CAMIONETA</t>
   </si>
   <si>
@@ -307,13 +352,16 @@
     <t>VW JETTA 2.0</t>
   </si>
   <si>
+    <t>I/VW JETTA 2.0</t>
+  </si>
+  <si>
     <t>JETTA 2.0</t>
   </si>
   <si>
     <t>112292-I/VW JETTA 2.0 _IMPORTADO_</t>
   </si>
   <si>
-    <t>I/VW JETTA 2.0</t>
+    <t>112292 - I/VW JETTA 2.0</t>
   </si>
   <si>
     <t>TOWN COUNTRY _IMPORTADO_</t>
@@ -322,12 +370,15 @@
     <t>I/CHRYSLER TOWN COUNTRY</t>
   </si>
   <si>
+    <t>CHRYSLER TOWN COUNTRY</t>
+  </si>
+  <si>
+    <t>FIAT FREEMONT PREC AT6</t>
+  </si>
+  <si>
     <t>FREEMONT PREC AT6</t>
   </si>
   <si>
-    <t>CHRYSLER TOWN COUNTRY</t>
-  </si>
-  <si>
     <t>COROLLA XEI18VVT</t>
   </si>
   <si>
@@ -376,7 +427,7 @@
     <t>KQQ5I71 (RJ)</t>
   </si>
   <si>
-    <t>KQQ5899</t>
+    <t>KQQ5I99 (RJ)</t>
   </si>
   <si>
     <t>KWK5457 (RJ)</t>
@@ -385,13 +436,13 @@
     <t>KWP6E02 (RJ)</t>
   </si>
   <si>
-    <t>KXN8649</t>
+    <t>KXN8G49 (RJ)</t>
   </si>
   <si>
     <t>KXO8I18 (RJ)</t>
   </si>
   <si>
-    <t>KXQ5360</t>
+    <t>KXQ5D60 (RJ)</t>
   </si>
   <si>
     <t>KZP8F31 (RJ)</t>
@@ -403,13 +454,13 @@
     <t>LSJ6A35 (RJ)</t>
   </si>
   <si>
-    <t>LSJ6A34</t>
+    <t>LSJ6A34 (RJ)</t>
   </si>
   <si>
     <t>LTJ5F86 (RJ)</t>
   </si>
   <si>
-    <t>LTP5775</t>
+    <t>LTP5775 (RJ)</t>
   </si>
   <si>
     <t>LTZ5G38 (RJ)</t>
@@ -424,19 +475,19 @@
     <t>KXD6H01 (RJ)</t>
   </si>
   <si>
-    <t>KYD8799</t>
-  </si>
-  <si>
-    <t>LTF5669</t>
+    <t>KYD8H99 (RJ)</t>
+  </si>
+  <si>
+    <t>LTF5G69 (RJ)</t>
   </si>
   <si>
     <t>LTH5H45 (RJ)</t>
   </si>
   <si>
-    <t>KQQ5898</t>
-  </si>
-  <si>
-    <t>KQO8127</t>
+    <t>KQQ5898 (RJ)</t>
+  </si>
+  <si>
+    <t>KQO8B27 (RJ)</t>
   </si>
   <si>
     <t>KQP5B47 (RJ)</t>
@@ -481,15 +532,24 @@
     <t>3VWDJ2161EM053627</t>
   </si>
   <si>
+    <t>3VWDJ2163EM067657</t>
+  </si>
+  <si>
     <t>3VWDJ216XEM041704</t>
   </si>
   <si>
     <t>3VWDJ2168EM041295</t>
   </si>
   <si>
+    <t>3VWDJ2162EM041762</t>
+  </si>
+  <si>
     <t>3VWDJ2168EM042947</t>
   </si>
   <si>
+    <t>3VWDJ216XEM051228</t>
+  </si>
+  <si>
     <t>3VWDJ2160EM046328</t>
   </si>
   <si>
@@ -499,9 +559,15 @@
     <t>3VWDJ2165EM043506</t>
   </si>
   <si>
+    <t>3VWDJ2167EM042907</t>
+  </si>
+  <si>
     <t>3VWDJ2162EM053443</t>
   </si>
   <si>
+    <t>3VWDJ216XEM059197</t>
+  </si>
+  <si>
     <t>3VWDJ2166EM048083</t>
   </si>
   <si>
@@ -514,9 +580,21 @@
     <t>2C4PC1GG6ER328986</t>
   </si>
   <si>
+    <t>2C4PC1GGXER404497</t>
+  </si>
+  <si>
+    <t>2C4PC1GG2ER364125</t>
+  </si>
+  <si>
     <t>2C4PC1GG6ER404500</t>
   </si>
   <si>
+    <t>3VWDJ2167EM063384</t>
+  </si>
+  <si>
+    <t>3C4PFABB4ET210127</t>
+  </si>
+  <si>
     <t>3C4PFABB0ET210125</t>
   </si>
   <si>
@@ -568,9 +646,15 @@
     <t>PRATA</t>
   </si>
   <si>
+    <t>4 - BRANCA</t>
+  </si>
+  <si>
     <t>PRETO</t>
   </si>
   <si>
+    <t>2 - AZUL</t>
+  </si>
+  <si>
     <t>GASOLINA</t>
   </si>
   <si>
@@ -586,6 +670,9 @@
     <t>ALCOOL-GASOL</t>
   </si>
   <si>
+    <t>16 - ALCOOL/GASOLINA</t>
+  </si>
+  <si>
     <t>1794</t>
   </si>
   <si>
@@ -613,6 +700,9 @@
     <t>MISTO</t>
   </si>
   <si>
+    <t>1 - PASSAGEIRO</t>
+  </si>
+  <si>
     <t>136</t>
   </si>
   <si>
@@ -637,6 +727,9 @@
     <t>ITAPECERICA DA SERRA</t>
   </si>
   <si>
+    <t>FOZ DO IGUACU</t>
+  </si>
+  <si>
     <t>GOIANIA</t>
   </si>
   <si>
@@ -652,7 +745,10 @@
     <t>COSMOPOLIS</t>
   </si>
   <si>
-    <t>FOZ DO IGUACU</t>
+    <t>GUARAPUAVA</t>
+  </si>
+  <si>
+    <t>BARUERI</t>
   </si>
   <si>
     <t>RIO DE JANEIRO</t>
@@ -667,6 +763,12 @@
     <t>CURITIBA</t>
   </si>
   <si>
+    <t>LONDRINA</t>
+  </si>
+  <si>
+    <t>SAO LOURENCO DA SERRA</t>
+  </si>
+  <si>
     <t>RIO DAS OSTRAS</t>
   </si>
   <si>
@@ -694,15 +796,24 @@
     <t>CKJ037580</t>
   </si>
   <si>
+    <t>CKJ039789</t>
+  </si>
+  <si>
     <t>CKJ035210</t>
   </si>
   <si>
     <t>CKJ035160</t>
   </si>
   <si>
+    <t>CKJ035205</t>
+  </si>
+  <si>
     <t>CKJ035529</t>
   </si>
   <si>
+    <t>CKJ037154</t>
+  </si>
+  <si>
     <t>CKJ036103</t>
   </si>
   <si>
@@ -712,9 +823,15 @@
     <t>CKJ035549</t>
   </si>
   <si>
+    <t>CKJ035362</t>
+  </si>
+  <si>
     <t>CKJ037756</t>
   </si>
   <si>
+    <t>CKJ038733</t>
+  </si>
+  <si>
     <t>CKJ036463</t>
   </si>
   <si>
@@ -727,9 +844,21 @@
     <t>ER328986</t>
   </si>
   <si>
+    <t>ER404497</t>
+  </si>
+  <si>
+    <t>ER364125</t>
+  </si>
+  <si>
     <t>ER404500</t>
   </si>
   <si>
+    <t>CKJ039200</t>
+  </si>
+  <si>
+    <t>BET210127</t>
+  </si>
+  <si>
     <t>BET210125</t>
   </si>
   <si>
@@ -808,16 +937,7 @@
     <t>220</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>time data '00/00/0000' does not match format '%d/%m/%Y'</t>
-  </si>
-  <si>
-    <t>'NoneType' object has no attribute 'text'</t>
-  </si>
-  <si>
-    <t>'NoneType' object is not iterable</t>
+    <t>POSSUI REGISTRO</t>
   </si>
 </sst>
 </file>
@@ -1221,7 +1341,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AI11" sqref="AI11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1229,7 +1351,7 @@
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="76.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="35" bestFit="1" customWidth="1"/>
@@ -1237,12 +1359,12 @@
     <col min="11" max="11" width="89" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="25.140625" bestFit="1" customWidth="1"/>
@@ -1257,7 +1379,7 @@
     <col min="31" max="31" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="33" max="34" width="5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="53.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
@@ -1372,58 +1494,58 @@
         <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="I2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="J2" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="K2" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="L2" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="M2">
         <v>615515428</v>
       </c>
       <c r="N2" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="O2" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="Q2" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="R2" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="S2" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="U2">
         <v>99</v>
       </c>
       <c r="V2" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="W2" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="X2" t="s">
-        <v>245</v>
-      </c>
-      <c r="AI2">
-        <v>1</v>
+        <v>288</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
@@ -1434,58 +1556,58 @@
         <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H3" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="I3" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="J3" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="K3" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="L3" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="M3">
         <v>957437447</v>
       </c>
       <c r="N3" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="O3" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="P3">
         <v>1587</v>
       </c>
       <c r="Q3" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="R3" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="S3" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="U3">
         <v>113</v>
       </c>
       <c r="V3" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="W3" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="X3" t="s">
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="Z3">
         <v>5</v>
@@ -1494,13 +1616,13 @@
         <v>2</v>
       </c>
       <c r="AF3" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="AG3">
         <v>3100</v>
       </c>
-      <c r="AI3">
-        <v>1</v>
+      <c r="AI3" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
@@ -1508,46 +1630,46 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="I4" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="J4" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="K4" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="L4" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="M4">
         <v>595634710</v>
       </c>
       <c r="N4" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="O4" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="Q4" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="R4" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="S4" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="T4">
         <v>204259490159106</v>
@@ -1556,13 +1678,13 @@
         <v>540</v>
       </c>
       <c r="V4" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="W4" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="X4" t="s">
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="Z4">
         <v>2</v>
@@ -1577,10 +1699,10 @@
         <v>3</v>
       </c>
       <c r="AD4" t="s">
-        <v>254</v>
+        <v>297</v>
       </c>
       <c r="AE4" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="AG4">
         <v>7800</v>
@@ -1588,8 +1710,8 @@
       <c r="AH4">
         <v>2710</v>
       </c>
-      <c r="AI4">
-        <v>1</v>
+      <c r="AI4" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
@@ -1600,58 +1722,58 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="H5" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="I5" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="J5" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="K5" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="L5" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="M5">
         <v>482588977</v>
       </c>
       <c r="N5" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="O5" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="P5">
         <v>3470</v>
       </c>
       <c r="Q5" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="R5" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="S5" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="U5">
         <v>277</v>
       </c>
       <c r="V5" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="W5" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="X5" t="s">
-        <v>246</v>
+        <v>289</v>
       </c>
       <c r="Y5">
         <v>63</v>
@@ -1663,7 +1785,7 @@
         <v>2</v>
       </c>
       <c r="AF5" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="AG5">
         <v>451</v>
@@ -1671,8 +1793,8 @@
       <c r="AH5">
         <v>251</v>
       </c>
-      <c r="AI5">
-        <v>1</v>
+      <c r="AI5" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
@@ -1680,61 +1802,61 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="I6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="J6" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="K6" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="L6" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="M6">
         <v>1125066714</v>
       </c>
       <c r="N6" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="O6" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="P6">
         <v>1984</v>
       </c>
       <c r="Q6" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="R6" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="S6" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="U6">
         <v>120</v>
       </c>
       <c r="V6" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="W6" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="X6" t="s">
-        <v>246</v>
+        <v>289</v>
       </c>
       <c r="Z6">
         <v>5</v>
@@ -1749,74 +1871,146 @@
         <v>186</v>
       </c>
       <c r="AI6" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J7" t="s">
+        <v>126</v>
+      </c>
       <c r="K7" t="s">
-        <v>118</v>
+        <v>135</v>
+      </c>
+      <c r="L7" t="s">
+        <v>170</v>
+      </c>
+      <c r="M7">
+        <v>1245108481</v>
+      </c>
+      <c r="N7" t="s">
+        <v>207</v>
+      </c>
+      <c r="O7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P7">
+        <v>1984</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>220</v>
+      </c>
+      <c r="R7" t="s">
+        <v>222</v>
+      </c>
+      <c r="S7" t="s">
+        <v>223</v>
+      </c>
+      <c r="U7">
+        <v>120</v>
+      </c>
+      <c r="V7" t="s">
+        <v>235</v>
+      </c>
+      <c r="W7" t="s">
+        <v>258</v>
+      </c>
+      <c r="X7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z7">
+        <v>5</v>
+      </c>
+      <c r="AC7">
+        <v>2</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>299</v>
+      </c>
+      <c r="AG7">
+        <v>186</v>
+      </c>
+      <c r="AH7">
+        <v>186</v>
       </c>
       <c r="AI7" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H8" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="J8" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="K8" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="L8" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="M8">
         <v>1010992640</v>
       </c>
       <c r="N8" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="O8" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="P8">
         <v>1984</v>
       </c>
       <c r="Q8" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="R8" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="S8" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="U8">
         <v>120</v>
       </c>
       <c r="V8" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="W8" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="X8" t="s">
-        <v>247</v>
+        <v>290</v>
       </c>
       <c r="Z8">
         <v>5</v>
@@ -1831,7 +2025,7 @@
         <v>186</v>
       </c>
       <c r="AI8" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
@@ -1839,61 +2033,61 @@
         <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H9" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="K9" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="L9" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="M9">
         <v>1010994163</v>
       </c>
       <c r="N9" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="O9" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="P9">
         <v>1984</v>
       </c>
       <c r="Q9" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="R9" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="S9" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="U9">
         <v>120</v>
       </c>
       <c r="V9" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="W9" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="X9" t="s">
-        <v>246</v>
+        <v>289</v>
       </c>
       <c r="Z9">
         <v>5</v>
@@ -1902,7 +2096,7 @@
         <v>2</v>
       </c>
       <c r="AF9" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="AG9">
         <v>186</v>
@@ -1911,15 +2105,90 @@
         <v>186</v>
       </c>
       <c r="AI9" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" t="s">
+        <v>110</v>
+      </c>
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" t="s">
+        <v>126</v>
+      </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>138</v>
+      </c>
+      <c r="L10" t="s">
+        <v>173</v>
+      </c>
+      <c r="M10">
+        <v>1014128460</v>
+      </c>
+      <c r="N10" t="s">
+        <v>205</v>
+      </c>
+      <c r="O10" t="s">
+        <v>214</v>
+      </c>
+      <c r="P10">
+        <v>1984</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>220</v>
+      </c>
+      <c r="R10" t="s">
+        <v>222</v>
+      </c>
+      <c r="S10" t="s">
+        <v>223</v>
+      </c>
+      <c r="U10">
+        <v>120</v>
+      </c>
+      <c r="V10" t="s">
+        <v>238</v>
+      </c>
+      <c r="W10" t="s">
+        <v>261</v>
+      </c>
+      <c r="X10" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z10">
+        <v>5</v>
+      </c>
+      <c r="AC10">
+        <v>2</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>299</v>
+      </c>
+      <c r="AG10">
+        <v>186</v>
+      </c>
+      <c r="AH10">
+        <v>186</v>
       </c>
       <c r="AI10" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
@@ -1927,61 +2196,61 @@
         <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H11" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="I11" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="L11" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="M11">
         <v>1014128886</v>
       </c>
       <c r="N11" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="O11" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="P11">
         <v>1984</v>
       </c>
       <c r="Q11" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="R11" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="S11" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="U11">
         <v>120</v>
       </c>
       <c r="V11" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="W11" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="X11" t="s">
-        <v>248</v>
+        <v>291</v>
       </c>
       <c r="Z11">
         <v>5</v>
@@ -1990,7 +2259,7 @@
         <v>2</v>
       </c>
       <c r="AF11" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="AG11">
         <v>186</v>
@@ -1999,77 +2268,146 @@
         <v>186</v>
       </c>
       <c r="AI11" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" t="s">
+        <v>126</v>
+      </c>
       <c r="K12" t="s">
-        <v>123</v>
+        <v>140</v>
+      </c>
+      <c r="L12" t="s">
+        <v>175</v>
+      </c>
+      <c r="M12">
+        <v>1014129351</v>
+      </c>
+      <c r="N12" t="s">
+        <v>205</v>
+      </c>
+      <c r="O12" t="s">
+        <v>214</v>
+      </c>
+      <c r="P12">
+        <v>1984</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>220</v>
+      </c>
+      <c r="R12" t="s">
+        <v>222</v>
+      </c>
+      <c r="S12" t="s">
+        <v>223</v>
+      </c>
+      <c r="U12">
+        <v>120</v>
+      </c>
+      <c r="V12" t="s">
+        <v>238</v>
+      </c>
+      <c r="W12" t="s">
+        <v>263</v>
+      </c>
+      <c r="X12" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z12">
+        <v>5</v>
+      </c>
+      <c r="AC12">
+        <v>2</v>
+      </c>
+      <c r="AG12">
+        <v>186</v>
+      </c>
+      <c r="AH12">
+        <v>186</v>
       </c>
       <c r="AI12" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G13" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H13" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="I13" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="J13" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="K13" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="L13" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="M13">
         <v>1205088480</v>
       </c>
       <c r="N13" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="O13" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="P13">
         <v>1984</v>
       </c>
       <c r="Q13" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="R13" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="S13" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="U13">
         <v>120</v>
       </c>
       <c r="V13" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="W13" t="s">
-        <v>227</v>
+        <v>264</v>
       </c>
       <c r="X13" t="s">
-        <v>246</v>
+        <v>289</v>
       </c>
       <c r="Z13">
         <v>5</v>
@@ -2084,69 +2422,69 @@
         <v>186</v>
       </c>
       <c r="AI13" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H14" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="I14" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="J14" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="K14" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="M14">
         <v>1205089575</v>
       </c>
       <c r="N14" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="O14" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="P14">
         <v>1984</v>
       </c>
       <c r="Q14" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="R14" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="S14" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="U14">
         <v>120</v>
       </c>
       <c r="V14" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="W14" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="X14" t="s">
-        <v>246</v>
+        <v>289</v>
       </c>
       <c r="Z14">
         <v>5</v>
@@ -2161,69 +2499,69 @@
         <v>186</v>
       </c>
       <c r="AI14" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G15" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H15" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="I15" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="J15" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="K15" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="L15" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="M15">
         <v>1013722547</v>
       </c>
       <c r="N15" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="O15" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="P15">
         <v>1984</v>
       </c>
       <c r="Q15" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="R15" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="S15" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="U15">
         <v>120</v>
       </c>
       <c r="V15" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="W15" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="X15" t="s">
-        <v>246</v>
+        <v>289</v>
       </c>
       <c r="Z15">
         <v>5</v>
@@ -2238,74 +2576,143 @@
         <v>186</v>
       </c>
       <c r="AI15" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16" t="s">
+        <v>110</v>
+      </c>
+      <c r="J16" t="s">
+        <v>126</v>
+      </c>
       <c r="K16" t="s">
-        <v>127</v>
+        <v>144</v>
+      </c>
+      <c r="L16" t="s">
+        <v>179</v>
+      </c>
+      <c r="M16">
+        <v>1013721370</v>
+      </c>
+      <c r="N16" t="s">
+        <v>205</v>
+      </c>
+      <c r="O16" t="s">
+        <v>214</v>
+      </c>
+      <c r="P16">
+        <v>1984</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>220</v>
+      </c>
+      <c r="R16" t="s">
+        <v>222</v>
+      </c>
+      <c r="S16" t="s">
+        <v>223</v>
+      </c>
+      <c r="U16">
+        <v>120</v>
+      </c>
+      <c r="V16" t="s">
+        <v>241</v>
+      </c>
+      <c r="W16" t="s">
+        <v>267</v>
+      </c>
+      <c r="X16" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z16">
+        <v>5</v>
+      </c>
+      <c r="AC16">
+        <v>2</v>
+      </c>
+      <c r="AG16">
+        <v>186</v>
+      </c>
+      <c r="AH16">
+        <v>186</v>
       </c>
       <c r="AI16" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H17" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="I17" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="J17" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="K17" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="L17" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="M17">
         <v>1125067524</v>
       </c>
       <c r="N17" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="O17" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="P17">
         <v>1984</v>
       </c>
       <c r="Q17" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="R17" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="S17" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="U17">
         <v>120</v>
       </c>
       <c r="V17" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="W17" t="s">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="Z17">
         <v>5</v>
@@ -2320,74 +2727,131 @@
         <v>1860</v>
       </c>
       <c r="AI17" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="4:35" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" t="s">
+        <v>113</v>
+      </c>
+      <c r="I18" t="s">
+        <v>113</v>
+      </c>
+      <c r="J18" t="s">
+        <v>126</v>
+      </c>
       <c r="K18" t="s">
-        <v>129</v>
+        <v>146</v>
+      </c>
+      <c r="L18" t="s">
+        <v>181</v>
+      </c>
+      <c r="M18">
+        <v>1255088025</v>
+      </c>
+      <c r="N18" t="s">
+        <v>208</v>
+      </c>
+      <c r="O18" t="s">
+        <v>216</v>
+      </c>
+      <c r="S18" t="s">
+        <v>226</v>
+      </c>
+      <c r="U18">
+        <v>120</v>
+      </c>
+      <c r="V18" t="s">
+        <v>242</v>
+      </c>
+      <c r="W18" t="s">
+        <v>269</v>
+      </c>
+      <c r="X18" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z18">
+        <v>5</v>
+      </c>
+      <c r="AG18">
+        <v>186</v>
+      </c>
+      <c r="AH18">
+        <v>186</v>
       </c>
       <c r="AI18" t="s">
-        <v>264</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="G19" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H19" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="I19" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="J19" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="K19" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="L19" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="M19">
         <v>1105125782</v>
       </c>
       <c r="N19" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="O19" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="P19">
         <v>1984</v>
       </c>
       <c r="Q19" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="R19" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="S19" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="U19">
         <v>120</v>
       </c>
       <c r="V19" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="W19" t="s">
-        <v>231</v>
+        <v>270</v>
       </c>
       <c r="X19" t="s">
-        <v>246</v>
+        <v>289</v>
       </c>
       <c r="Z19">
         <v>5</v>
@@ -2402,69 +2866,69 @@
         <v>186</v>
       </c>
       <c r="AI19" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G20" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H20" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="I20" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="J20" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="K20" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="L20" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="M20">
         <v>1105126789</v>
       </c>
       <c r="N20" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="O20" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="P20">
         <v>1984</v>
       </c>
       <c r="Q20" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="R20" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="S20" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="U20">
         <v>120</v>
       </c>
       <c r="V20" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="W20" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="X20" t="s">
-        <v>248</v>
+        <v>291</v>
       </c>
       <c r="Z20">
         <v>5</v>
@@ -2479,66 +2943,66 @@
         <v>186</v>
       </c>
       <c r="AI20" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F21" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G21" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H21" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="I21" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="J21" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="K21" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="L21" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="M21">
         <v>1125049828</v>
       </c>
       <c r="N21" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="O21" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="P21">
         <v>3604</v>
       </c>
       <c r="Q21" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="R21" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="S21" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="U21">
         <v>283</v>
       </c>
       <c r="V21" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="W21" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="X21" t="s">
-        <v>248</v>
+        <v>291</v>
       </c>
       <c r="Y21">
         <v>67</v>
@@ -2553,63 +3017,63 @@
         <v>269</v>
       </c>
       <c r="AI21" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F22" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="G22" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H22" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="I22" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="J22" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="K22" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="L22" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="M22">
         <v>1011992440</v>
       </c>
       <c r="N22" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="O22" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="P22">
         <v>3604</v>
       </c>
       <c r="Q22" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="R22" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="S22" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="U22">
         <v>283</v>
       </c>
       <c r="V22" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="W22" t="s">
-        <v>234</v>
+        <v>273</v>
       </c>
       <c r="Y22">
         <v>670</v>
@@ -2627,79 +3091,217 @@
         <v>2690</v>
       </c>
       <c r="AI22" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="4:35" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I23" t="s">
+        <v>116</v>
+      </c>
+      <c r="J23" t="s">
+        <v>126</v>
+      </c>
       <c r="K23" t="s">
-        <v>134</v>
+        <v>151</v>
+      </c>
+      <c r="L23" t="s">
+        <v>186</v>
+      </c>
+      <c r="M23">
+        <v>1145038651</v>
+      </c>
+      <c r="N23" t="s">
+        <v>204</v>
+      </c>
+      <c r="O23" t="s">
+        <v>211</v>
+      </c>
+      <c r="P23">
+        <v>3604</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>220</v>
+      </c>
+      <c r="R23" t="s">
+        <v>222</v>
+      </c>
+      <c r="S23" t="s">
+        <v>225</v>
+      </c>
+      <c r="U23">
+        <v>283</v>
+      </c>
+      <c r="V23" t="s">
+        <v>246</v>
+      </c>
+      <c r="W23" t="s">
+        <v>274</v>
+      </c>
+      <c r="X23" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y23">
+        <v>67</v>
+      </c>
+      <c r="Z23">
+        <v>7</v>
+      </c>
+      <c r="AC23">
+        <v>2</v>
+      </c>
+      <c r="AG23">
+        <v>160</v>
+      </c>
+      <c r="AH23">
+        <v>269</v>
       </c>
       <c r="AI23" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="4:35" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" t="s">
+        <v>115</v>
+      </c>
+      <c r="I24" t="s">
+        <v>115</v>
+      </c>
+      <c r="J24" t="s">
+        <v>126</v>
+      </c>
       <c r="K24" t="s">
-        <v>135</v>
+        <v>152</v>
+      </c>
+      <c r="L24" t="s">
+        <v>187</v>
+      </c>
+      <c r="M24">
+        <v>1125048228</v>
+      </c>
+      <c r="N24" t="s">
+        <v>209</v>
+      </c>
+      <c r="O24" t="s">
+        <v>211</v>
+      </c>
+      <c r="P24">
+        <v>3604</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>220</v>
+      </c>
+      <c r="R24" t="s">
+        <v>222</v>
+      </c>
+      <c r="S24" t="s">
+        <v>225</v>
+      </c>
+      <c r="U24">
+        <v>283</v>
+      </c>
+      <c r="V24" t="s">
+        <v>247</v>
+      </c>
+      <c r="W24" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y24">
+        <v>670</v>
+      </c>
+      <c r="Z24">
+        <v>7</v>
+      </c>
+      <c r="AC24">
+        <v>2</v>
+      </c>
+      <c r="AG24">
+        <v>1600</v>
+      </c>
+      <c r="AH24">
+        <v>2690</v>
       </c>
       <c r="AI24" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F25" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="G25" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H25" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="I25" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="J25" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="K25" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="L25" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="M25">
         <v>1125050613</v>
       </c>
       <c r="N25" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="O25" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="P25">
         <v>3604</v>
       </c>
       <c r="Q25" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="R25" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="S25" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="U25">
         <v>283</v>
       </c>
       <c r="V25" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="W25" t="s">
-        <v>235</v>
+        <v>276</v>
       </c>
       <c r="Y25">
         <v>670</v>
@@ -2717,82 +3319,202 @@
         <v>2690</v>
       </c>
       <c r="AI25" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="4:35" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" t="s">
+        <v>113</v>
+      </c>
+      <c r="I26" t="s">
+        <v>113</v>
+      </c>
+      <c r="J26" t="s">
+        <v>126</v>
+      </c>
       <c r="K26" t="s">
-        <v>137</v>
+        <v>154</v>
+      </c>
+      <c r="L26" t="s">
+        <v>189</v>
+      </c>
+      <c r="M26">
+        <v>1245107329</v>
+      </c>
+      <c r="N26" t="s">
+        <v>210</v>
+      </c>
+      <c r="O26" t="s">
+        <v>216</v>
+      </c>
+      <c r="S26" t="s">
+        <v>226</v>
+      </c>
+      <c r="U26">
+        <v>120</v>
+      </c>
+      <c r="V26" t="s">
+        <v>248</v>
+      </c>
+      <c r="W26" t="s">
+        <v>277</v>
+      </c>
+      <c r="X26" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z26">
+        <v>5</v>
+      </c>
+      <c r="AG26">
+        <v>186</v>
+      </c>
+      <c r="AH26">
+        <v>186</v>
       </c>
       <c r="AI26" t="s">
-        <v>264</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="4:35" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" t="s">
+        <v>117</v>
+      </c>
+      <c r="I27" t="s">
+        <v>117</v>
+      </c>
+      <c r="J27" t="s">
+        <v>126</v>
+      </c>
       <c r="K27" t="s">
-        <v>138</v>
+        <v>155</v>
+      </c>
+      <c r="L27" t="s">
+        <v>190</v>
+      </c>
+      <c r="M27">
+        <v>1011520181</v>
+      </c>
+      <c r="N27" t="s">
+        <v>205</v>
+      </c>
+      <c r="O27" t="s">
+        <v>211</v>
+      </c>
+      <c r="P27">
+        <v>2400</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>220</v>
+      </c>
+      <c r="R27" t="s">
+        <v>222</v>
+      </c>
+      <c r="S27" t="s">
+        <v>225</v>
+      </c>
+      <c r="U27">
+        <v>172</v>
+      </c>
+      <c r="V27" t="s">
+        <v>237</v>
+      </c>
+      <c r="W27" t="s">
+        <v>278</v>
+      </c>
+      <c r="X27" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y27">
+        <v>50</v>
+      </c>
+      <c r="Z27">
+        <v>7</v>
+      </c>
+      <c r="AG27">
+        <v>283</v>
+      </c>
+      <c r="AH27">
+        <v>238</v>
       </c>
       <c r="AI27" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
     </row>
     <row r="28" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F28" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="G28" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H28" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="I28" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="J28" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="K28" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="L28" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="M28">
         <v>1011523300</v>
       </c>
       <c r="N28" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="O28" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="P28">
         <v>2400</v>
       </c>
       <c r="Q28" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="R28" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="S28" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="U28">
         <v>172</v>
       </c>
       <c r="V28" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="W28" t="s">
-        <v>236</v>
+        <v>279</v>
       </c>
       <c r="X28" t="s">
-        <v>248</v>
+        <v>291</v>
       </c>
       <c r="Y28">
         <v>50</v>
@@ -2807,66 +3529,66 @@
         <v>238</v>
       </c>
       <c r="AI28" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F29" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="G29" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H29" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="I29" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="J29" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="K29" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="L29" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="M29">
         <v>1011515684</v>
       </c>
       <c r="N29" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="O29" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="P29">
         <v>2400</v>
       </c>
       <c r="Q29" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="R29" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="S29" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="U29">
         <v>172</v>
       </c>
       <c r="V29" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="W29" t="s">
-        <v>237</v>
+        <v>280</v>
       </c>
       <c r="X29" t="s">
-        <v>248</v>
+        <v>291</v>
       </c>
       <c r="Y29">
         <v>50</v>
@@ -2881,66 +3603,66 @@
         <v>238</v>
       </c>
       <c r="AI29" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F30" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="G30" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H30" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="I30" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="J30" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="K30" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="L30" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="M30">
         <v>1011990935</v>
       </c>
       <c r="N30" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="O30" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="P30">
         <v>3604</v>
       </c>
       <c r="Q30" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="R30" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="S30" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="U30">
         <v>283</v>
       </c>
       <c r="V30" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="W30" t="s">
-        <v>238</v>
+        <v>281</v>
       </c>
       <c r="X30" t="s">
-        <v>246</v>
+        <v>289</v>
       </c>
       <c r="Y30">
         <v>67</v>
@@ -2958,66 +3680,66 @@
         <v>269</v>
       </c>
       <c r="AI30" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F31" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="G31" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H31" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="I31" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="J31" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="K31" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="L31" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="M31">
         <v>1145053332</v>
       </c>
       <c r="N31" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="O31" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="P31">
         <v>3604</v>
       </c>
       <c r="Q31" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="R31" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="S31" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="U31">
         <v>283</v>
       </c>
       <c r="V31" t="s">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="W31" t="s">
-        <v>239</v>
+        <v>282</v>
       </c>
       <c r="X31" t="s">
-        <v>246</v>
+        <v>289</v>
       </c>
       <c r="Y31">
         <v>67</v>
@@ -3035,63 +3757,63 @@
         <v>269</v>
       </c>
       <c r="AI31" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F32" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="G32" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H32" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="I32" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="J32" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="K32" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="L32" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="M32">
         <v>1011994108</v>
       </c>
       <c r="N32" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="O32" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="P32">
         <v>3604</v>
       </c>
       <c r="Q32" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="R32" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="S32" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="U32">
         <v>283</v>
       </c>
       <c r="V32" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="W32" t="s">
-        <v>240</v>
+        <v>283</v>
       </c>
       <c r="Y32">
         <v>670</v>
@@ -3109,63 +3831,63 @@
         <v>2690</v>
       </c>
       <c r="AI32" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="3:35" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F33" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="G33" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H33" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="I33" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="J33" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="K33" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="L33" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="M33">
         <v>1011165730</v>
       </c>
       <c r="N33" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="O33" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="P33">
         <v>3604</v>
       </c>
       <c r="Q33" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="R33" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="S33" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="U33">
         <v>283</v>
       </c>
       <c r="V33" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="W33" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="Y33">
         <v>670</v>
@@ -3180,7 +3902,7 @@
         <v>2690</v>
       </c>
       <c r="AI33" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34" spans="3:35" x14ac:dyDescent="0.25">
@@ -3188,153 +3910,153 @@
         <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F34" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="G34" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H34" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="I34" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="J34" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="K34" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="L34" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="M34" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="N34" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="O34" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="P34" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="Q34" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="R34" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="S34" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="U34" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="V34" t="s">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="W34" t="s">
-        <v>242</v>
+        <v>285</v>
       </c>
       <c r="X34" t="s">
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="Z34" t="s">
-        <v>249</v>
+        <v>292</v>
       </c>
       <c r="AB34" t="s">
-        <v>251</v>
+        <v>294</v>
       </c>
       <c r="AC34" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="AF34" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="AH34" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="AI34" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35" spans="3:35" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F35" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G35" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H35" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="I35" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="J35" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="K35" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="L35" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="M35" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="N35" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="O35" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="P35" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="Q35" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="R35" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="S35" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="U35" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="V35" t="s">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="W35" t="s">
-        <v>243</v>
+        <v>286</v>
       </c>
       <c r="X35" t="s">
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="Z35" t="s">
-        <v>250</v>
+        <v>293</v>
       </c>
       <c r="AB35" t="s">
-        <v>252</v>
+        <v>295</v>
       </c>
       <c r="AG35" t="s">
-        <v>257</v>
+        <v>300</v>
       </c>
       <c r="AH35" t="s">
-        <v>260</v>
+        <v>303</v>
       </c>
       <c r="AI35" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36" spans="3:35" x14ac:dyDescent="0.25">
@@ -3342,79 +4064,79 @@
         <v>39</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F36" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="G36" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H36" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="I36" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="J36" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="K36" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="L36" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="M36" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="N36" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="O36" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="P36" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="Q36" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="R36" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="S36" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="U36" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="V36" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="W36" t="s">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="X36" t="s">
-        <v>246</v>
+        <v>289</v>
       </c>
       <c r="Z36" t="s">
-        <v>250</v>
+        <v>293</v>
       </c>
       <c r="AC36" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="AF36" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="AG36" t="s">
-        <v>258</v>
+        <v>301</v>
       </c>
       <c r="AH36" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="AI36" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
